--- a/pre-waf/tests/test_data/test_dfs_wg.xlsx
+++ b/pre-waf/tests/test_data/test_dfs_wg.xlsx
@@ -19,32 +19,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AJ2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>RS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WoGG Anlage 1 (zu §19 (1))
-- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AK2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -71,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ3" authorId="0" shapeId="0">
+    <comment ref="AL2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,31 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-für das arbeitende Kind</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ4" authorId="0" shapeId="0">
+    <comment ref="AL3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,6 +120,30 @@
 WoGG Anlage 1 (zu §19 (1))
 - zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+für das arbeitende Kind</t>
         </r>
       </text>
     </comment>
@@ -199,7 +173,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0">
+    <comment ref="AL4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WoGG Anlage 1 (zu §19 (1))
+- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG7" authorId="0" shapeId="0">
+    <comment ref="AH7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>hid</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>hhsize_tu</t>
+  </si>
+  <si>
+    <t>uhv</t>
   </si>
 </sst>
 </file>
@@ -768,22 +771,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" customWidth="1"/>
+    <col min="32" max="33" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,76 +839,79 @@
         <v>7</v>
       </c>
       <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -963,79 +969,82 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>25000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1000</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>100</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>80</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>2016</v>
       </c>
-      <c r="AB2" s="13">
-        <f>1.15*(AO2-((AI2+(AJ2*AO2)+(AK2*AN2))*AN2))</f>
+      <c r="AC2" s="13">
+        <f>1.15*(AP2-((AJ2+(AK2*AP2)+(AL2*AO2))*AO2))</f>
         <v>112.28878874999987</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>0.3</v>
       </c>
-      <c r="AE2" s="10">
-        <f>(R2+S2+T2+U2)/12+P2+Q2+(N2*O2)</f>
+      <c r="AF2" s="10">
+        <f>(S2+T2+U2+V2)/12+P2+Q2+(N2*O2)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AF2" s="10">
-        <f>SUM($AE$2:$AE$4)</f>
+      <c r="AG2" s="10">
+        <f>SUM($AF$2:$AF$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>100</v>
       </c>
-      <c r="AH2" s="12">
-        <f>MAX(ROUND((1-AD2)*MAX(0,AF2-AG2)+4,-1)-5,0)</f>
+      <c r="AI2" s="12">
+        <f>MAX(ROUND((1-AE2)*MAX(0,AG2-AH2)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.02</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AK2" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AL2" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>563</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>70</v>
       </c>
-      <c r="AN2" s="12">
-        <f>AH2</f>
+      <c r="AO2" s="12">
+        <f>AI2</f>
         <v>1445</v>
       </c>
-      <c r="AO2">
-        <f>ROUND(MAX(MIN(H2,AL2)+I2,AM2)+4,-1)-5</f>
+      <c r="AP2">
+        <f>ROUND(MAX(MIN(H2,AM2)+I2,AN2)+4,-1)-5</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1116,55 +1125,58 @@
         <v>0</v>
       </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>2016</v>
       </c>
-      <c r="AB3" s="13">
-        <f t="shared" ref="AB3:AB4" si="1">1.15*(AO3-((AI3+(AJ3*AO3)+(AK3*AN3))*AN3))</f>
+      <c r="AC3" s="13">
+        <f t="shared" ref="AC3:AC4" si="1">1.15*(AP3-((AJ3+(AK3*AP3)+(AL3*AO3))*AO3))</f>
         <v>112.28878874999987</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.3</v>
       </c>
-      <c r="AE3" s="10">
-        <f t="shared" ref="AE3:AE13" si="2">(R3+S3+T3+U3)/12+P3+Q3+(N3*O3)</f>
-        <v>0</v>
-      </c>
       <c r="AF3" s="10">
-        <f>SUM($AE$2:$AE$4)</f>
+        <f t="shared" ref="AF3:AF13" si="2">(S3+T3+U3+V3)/12+P3+Q3+(N3*O3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>SUM($AF$2:$AF$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>100</v>
       </c>
-      <c r="AH3" s="12">
-        <f t="shared" ref="AH3:AH13" si="3">MAX(ROUND((1-AD3)*MAX(0,AF3-AG3)+4,-1)-5,0)</f>
+      <c r="AI3" s="12">
+        <f t="shared" ref="AI3:AI13" si="3">MAX(ROUND((1-AE3)*MAX(0,AG3-AH3)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.02</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AK3" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AL3" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>563</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>70</v>
       </c>
-      <c r="AN3" s="12">
-        <f t="shared" ref="AN3:AN8" si="4">AH3</f>
+      <c r="AO3" s="12">
+        <f t="shared" ref="AO3:AO8" si="4">AI3</f>
         <v>1445</v>
       </c>
-      <c r="AO3">
-        <f t="shared" ref="AO3:AO13" si="5">ROUND(MAX(MIN(H3,AL3)+I3,AM3)+4,-1)-5</f>
+      <c r="AP3">
+        <f t="shared" ref="AP3:AP13" si="5">ROUND(MAX(MIN(H3,AM3)+I3,AN3)+4,-1)-5</f>
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1245,55 +1257,58 @@
         <v>0</v>
       </c>
       <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>2016</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AC4" s="13">
         <f t="shared" si="1"/>
         <v>112.28878874999987</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AF4" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="10">
-        <f>SUM($AE$2:$AE$4)</f>
+      <c r="AG4" s="10">
+        <f>SUM($AF$2:$AF$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>100</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AI4" s="12">
         <f t="shared" si="3"/>
         <v>1445</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.02</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AK4" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>563</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>70</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AO4" s="12">
         <f t="shared" si="4"/>
         <v>1445</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <f t="shared" si="5"/>
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1350,11 +1365,11 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
         <v>10000</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
@@ -1362,68 +1377,71 @@
         <v>0</v>
       </c>
       <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>100</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>80</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>50</v>
       </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
       <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
         <v>2013</v>
       </c>
-      <c r="AB5" s="13">
-        <f>1.08*(AO5-((AI5+(AJ5*AO5)+(AK5*AN5))*AN5))</f>
+      <c r="AC5" s="13">
+        <f>1.08*(AP5-((AJ5+(AK5*AP5)+(AL5*AO5))*AO5))</f>
         <v>244.81431657000002</v>
       </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
         <v>0.2</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AF5" s="11">
         <f t="shared" si="2"/>
         <v>933.33333333333337</v>
       </c>
-      <c r="AF5" s="10">
-        <f>SUM($AE$5:$AE$6)</f>
+      <c r="AG5" s="10">
+        <f>SUM($AF$5:$AF$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>100</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AI5" s="12">
         <f t="shared" si="3"/>
         <v>665</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AJ5" s="9">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AK5" s="9">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AL5" s="9">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AM5" s="3">
         <v>402</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AN5" s="3">
         <v>55</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AO5" s="12">
         <f t="shared" si="4"/>
         <v>665</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1500,59 +1518,62 @@
       <c r="Y6" s="3">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
         <v>2013</v>
       </c>
-      <c r="AB6" s="13">
-        <f>1.08*(AO6-((AI6+(AJ6*AO6)+(AK6*AN6))*AN6))</f>
+      <c r="AC6" s="13">
+        <f>1.08*(AP6-((AJ6+(AK6*AP6)+(AL6*AO6))*AO6))</f>
         <v>244.81431657000002</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>0.2</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AF6" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="10">
-        <f>SUM($AE$5:$AE$6)</f>
+      <c r="AG6" s="10">
+        <f>SUM($AF$5:$AF$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>100</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AI6" s="12">
         <f t="shared" si="3"/>
         <v>665</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AK6" s="6">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AL6" s="6">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>402</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AN6" s="3">
         <v>55</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AO6" s="12">
         <f t="shared" si="4"/>
         <v>665</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1609,81 +1630,84 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
         <f>1400*12</f>
         <v>16800</v>
       </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
         <v>1000</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>80</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
         <v>0</v>
       </c>
       <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
         <v>2009</v>
       </c>
-      <c r="AB7" s="13">
-        <f t="shared" ref="AB7:AB8" si="6">1.08*(AO7-((AI7+(AJ7*AO7)+(AK7*AN7))*AN7))</f>
+      <c r="AC7" s="13">
+        <f t="shared" ref="AC7:AC8" si="6">1.08*(AP7-((AJ7+(AK7*AP7)+(AL7*AO7))*AO7))</f>
         <v>28.486336770000033</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
         <v>0.3</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AF7" s="11">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="AF7" s="10">
-        <f>SUM($AE$7:$AE$8)</f>
+      <c r="AG7" s="10">
+        <f>SUM($AF$7:$AF$8)</f>
         <v>1650</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>50</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AI7" s="12">
         <f t="shared" si="3"/>
         <v>1115</v>
       </c>
-      <c r="AI7" s="9">
+      <c r="AJ7" s="9">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AK7" s="9">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AL7" s="9">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>402</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AN7" s="3">
         <v>55</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AO7" s="12">
         <f t="shared" si="4"/>
         <v>1115</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1764,55 +1788,58 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>2009</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AC8" s="13">
         <f t="shared" si="6"/>
         <v>28.486336770000033</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>0.3</v>
       </c>
-      <c r="AE8" s="10">
+      <c r="AF8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="10">
-        <f>SUM($AE$7:$AE$8)</f>
+      <c r="AG8" s="10">
+        <f>SUM($AF$7:$AF$8)</f>
         <v>1650</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>50</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AI8" s="12">
         <f t="shared" si="3"/>
         <v>1115</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AJ8" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AK8" s="6">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AL8" s="6">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>402</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>55</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AO8" s="12">
         <f t="shared" si="4"/>
         <v>1115</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <f t="shared" si="5"/>
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1881,11 +1908,11 @@
         <v>0</v>
       </c>
       <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>50</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
       <c r="Y9" s="2">
         <v>0</v>
       </c>
@@ -1893,55 +1920,58 @@
         <v>0</v>
       </c>
       <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
         <v>2006</v>
       </c>
-      <c r="AB9" s="13">
-        <f>(AO9-((AI9+(AJ9*AO9)+(AK9*AN9))*AN9))</f>
+      <c r="AC9" s="13">
+        <f>(AP9-((AJ9+(AK9*AP9)+(AL9*AO9))*AO9))</f>
         <v>612.35275024999999</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2">
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
         <v>0.1</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AF9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="11">
-        <f>SUM($AE$9:$AE$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="12">
+      <c r="AG9" s="11">
+        <f>SUM($AF$9:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>3.48E-4</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AL9" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>580</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>32.5</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AO9" s="12">
         <v>285</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2021,55 +2051,58 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
         <v>2006</v>
       </c>
-      <c r="AB10" s="13">
-        <f t="shared" ref="AB10:AB13" si="7">(AO10-((AI10+(AJ10*AO10)+(AK10*AN10))*AN10))</f>
+      <c r="AC10" s="13">
+        <f t="shared" ref="AC10:AC13" si="7">(AP10-((AJ10+(AK10*AP10)+(AL10*AO10))*AO10))</f>
         <v>612.35275024999999</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>0.1</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AF10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="10">
-        <f t="shared" ref="AF10:AF13" si="8">SUM($AE$9:$AE$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="12">
+      <c r="AG10" s="10">
+        <f t="shared" ref="AG10:AG13" si="8">SUM($AF$9:$AF$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3.48E-4</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AL10" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>580</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>32.5</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AO10" s="12">
         <v>285</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2149,55 +2182,58 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
         <v>2006</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AC11" s="13">
         <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>0.1</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AF11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AG11" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3.48E-4</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AL11" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AM11" s="3">
         <v>580</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>32.5</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AO11" s="12">
         <v>285</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2277,55 +2313,58 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
         <v>2006</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AC12" s="13">
         <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>0.1</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AF12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AG12" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3.48E-4</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AL12" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AM12" s="3">
         <v>580</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>32.5</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AO12" s="12">
         <v>285</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2405,67 +2444,70 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
         <v>2006</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AC13" s="13">
         <f t="shared" si="7"/>
         <v>612.35275024999999</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>0.1</v>
       </c>
-      <c r="AE13" s="10">
+      <c r="AF13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AG13" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3.48E-4</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AL13" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>580</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>32.5</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AO13" s="12">
         <v>285</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="L14" s="3"/>
-      <c r="AB14" s="1"/>
-      <c r="AD14" s="3"/>
+      <c r="AC14" s="1"/>
+      <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AB15" s="1"/>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AB16" s="1"/>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB17" s="1"/>
+    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
